--- a/doc-templates/template_act.xlsx
+++ b/doc-templates/template_act.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>АКТ ПРИЕМКИ ОКАЗАННЫХ УСЛУГ</t>
   </si>
   <si>
     <t xml:space="preserve">г. Москва </t>
+  </si>
+  <si>
+    <t>25 декабря 2024 г.</t>
   </si>
   <si>
     <t xml:space="preserve">   Общество с ограниченной ответственностью «ТЕЛЕКОМПРОЕКТ» в лице директора Зименкова Павла Валерьевича, действующего на основании Устава, именуемое в дальнейшем «Заказчик», с одной стороны, и гражданин Российской Федерации Кочергин Алексей Игоревич, являющейся плательщиком налога на профессиональный доход, именуемая в дальнейшем «Исполнитель», с другой стороны, составили настоящий Акт приемки оказанных услуг (далее  -  Акт) по Договору об оказании услуг от 01 октября 2024 года № 4-10/2024 (далее — Договор) о нижеследующем.</t>
@@ -101,15 +104,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d mmmm yyyy &quot;г&quot;."/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -151,9 +158,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -168,7 +215,38 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
       <bottom style="hair">
         <color indexed="8"/>
@@ -191,6 +269,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -199,92 +288,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -305,6 +475,7 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -442,13 +613,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -805,13 +970,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1384,12 +1543,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="17.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.03906" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.9688" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7734" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8281" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.9062" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.9141" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1401,344 +1559,344 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="22.1" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" ht="22.1" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7">
-        <v>45651</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" ht="22.1" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="56.7" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="A5" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" ht="22.1" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="23.7" customHeight="1">
       <c r="A7" t="s" s="12">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" ht="22.1" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" ht="59.25" customHeight="1">
-      <c r="A9" t="s" s="15">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s" s="15">
+      <c r="A9" t="s" s="19">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="16">
+      <c r="B9" t="s" s="19">
         <v>6</v>
       </c>
-      <c r="D9" t="s" s="16">
+      <c r="C9" t="s" s="20">
         <v>7</v>
       </c>
-      <c r="E9" t="s" s="16">
+      <c r="D9" t="s" s="20">
         <v>8</v>
       </c>
-      <c r="F9" t="s" s="16">
+      <c r="E9" t="s" s="20">
         <v>9</v>
       </c>
+      <c r="F9" t="s" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" ht="24.7" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="21">
         <v>1</v>
       </c>
-      <c r="B10" t="s" s="18">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s" s="15">
+      <c r="B10" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D10" s="17">
+      <c r="C10" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="D10" s="21">
         <v>125</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="21">
         <v>200</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="21">
         <f>E10*D10</f>
         <v>25000</v>
       </c>
     </row>
     <row r="11" ht="28.6" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="21">
         <v>2</v>
       </c>
-      <c r="B11" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s" s="15">
+      <c r="B11" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="D11" s="17">
+      <c r="C11" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="D11" s="21">
         <v>64</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="21">
         <v>500</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="21">
         <f>E11*D11</f>
         <v>32000</v>
       </c>
     </row>
     <row r="12" ht="44.75" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="21">
         <v>3</v>
       </c>
-      <c r="B12" t="s" s="18">
+      <c r="B12" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="C12" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="D12" s="21">
         <v>80</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="21">
         <v>400</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="21">
         <f>E12*D12</f>
         <v>32000</v>
       </c>
     </row>
     <row r="13" ht="13.7" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="21">
         <v>4</v>
       </c>
-      <c r="B13" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="B13" t="s" s="22">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="D13" s="21">
         <v>30</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="21">
         <v>1000</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="21">
         <f>E13*D13</f>
         <v>30000</v>
       </c>
     </row>
     <row r="14" ht="30.5" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="21">
         <v>5</v>
       </c>
-      <c r="B14" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="B14" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="D14" s="21">
         <v>5</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="21">
         <v>10000</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="21">
         <f>E14*D14</f>
         <v>50000</v>
       </c>
     </row>
     <row r="15" ht="24.7" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="21">
         <v>6</v>
       </c>
-      <c r="B15" t="s" s="18">
+      <c r="B15" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="D15" s="21">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="D15" s="17">
-        <v>17</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="E15" s="21">
         <v>3000</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="21">
         <f>E15*D15</f>
         <v>51000</v>
       </c>
     </row>
     <row r="16" ht="22.1" customHeight="1">
-      <c r="A16" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="17">
+      <c r="A16" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="21">
         <f>SUM(F10:F15)</f>
         <v>220000</v>
       </c>
     </row>
     <row r="17" ht="22.1" customHeight="1">
-      <c r="A17" t="s" s="21">
-        <v>19</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="A17" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" ht="22.1" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" ht="26.3" customHeight="1">
-      <c r="A19" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="A19" t="s" s="28">
+        <v>21</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" ht="24.95" customHeight="1">
-      <c r="A20" t="s" s="23">
-        <v>21</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="A20" t="s" s="28">
+        <v>22</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" ht="12.7" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" ht="12.7" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" ht="12.7" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" ht="22.1" customHeight="1">
-      <c r="A24" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" t="s" s="24">
+      <c r="A24" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="29"/>
+      <c r="C24" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" ht="22.1" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="F25" s="8"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" ht="22.1" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" ht="22.1" customHeight="1">
-      <c r="A27" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="4"/>
-      <c r="D27" t="s" s="24">
+      <c r="A27" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="29"/>
+      <c r="D27" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" ht="31.8" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="26"/>
-      <c r="D28" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" t="s" s="37">
+        <v>28</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1756,5 +1914,8 @@
   </mergeCells>
   <pageMargins left="0.590278" right="0.39375" top="0.7875" bottom="0.7875" header="0.511811" footer="0.511811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/doc-templates/template_act.xlsx
+++ b/doc-templates/template_act.xlsx
@@ -168,11 +168,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -181,7 +181,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -189,17 +189,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top/>
@@ -216,7 +216,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom/>
@@ -224,7 +224,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top/>
@@ -245,7 +245,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom style="hair">
@@ -270,7 +270,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top style="hair">
@@ -291,7 +291,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
@@ -301,12 +301,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -315,18 +315,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,7 +475,6 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
